--- a/y_labelled_train.xlsx
+++ b/y_labelled_train.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orteg\Dropbox\ArchOrg\1Almacen\EMDS\Computacion\3 Cursos\KUL Knowledge and the Web\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Dropbox\Master\Leuven\Clases\Semestre 1\Knowledge and the Web\Proyecto\KnowledgeAndTheWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726F7316-D6F8-4721-B474-B50BFAFBB8B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD4B84E-4F93-4E96-A9DF-96E2CD3533E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8412" xr2:uid="{C7A21C4C-6D72-4F41-B359-F1A9739D8CF9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8415" xr2:uid="{C7A21C4C-6D72-4F41-B359-F1A9739D8CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,24 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>label</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>nc</t>
   </si>
 </sst>
 </file>
@@ -401,382 +386,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618FC9FD-8890-4C95-A371-48EFB12B6253}">
-  <dimension ref="A1:A74"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>1</v>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/y_labelled_train.xlsx
+++ b/y_labelled_train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Dropbox\Master\Leuven\Clases\Semestre 1\Knowledge and the Web\Proyecto\KnowledgeAndTheWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD4B84E-4F93-4E96-A9DF-96E2CD3533E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FBB179-D911-492F-9811-26A6AAD3E589}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8415" xr2:uid="{C7A21C4C-6D72-4F41-B359-F1A9739D8CF9}"/>
   </bookViews>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618FC9FD-8890-4C95-A371-48EFB12B6253}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A1156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A1120" workbookViewId="0">
+      <selection activeCell="I1133" sqref="I1133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +894,5286 @@
         <v>4</v>
       </c>
     </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1002">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1003">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1004">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1005">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1007">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1008">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1009">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1010">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1011">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1013">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1014">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1015">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1016">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1017">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1018">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1019">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1020">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1021">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1022">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1023">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1024">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1025">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1026">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1027">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1028">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1030">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1031">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1032">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1033">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1034">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1035">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1036">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1037">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1038">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1039">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1040">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1041">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1042">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1043">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1044">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1045">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1046">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1047">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1049">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1050">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1052">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1053">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1054">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1055">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1056">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1058">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1059">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1060">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1061">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1062">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1063">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1064">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1065">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1066">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1067">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1068">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1069">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1070">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1071">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1072">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1073">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1074">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1075">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1076">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1077">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1078">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1079">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1080">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1081">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1082">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1083">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1084">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1085">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1086">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1087">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1088">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1089">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1090">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1091">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1092">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1093">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1094">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1095">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1096">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1097">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1098">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1099">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1156">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
